--- a/R/akcie-stoupaji.xlsx
+++ b/R/akcie-stoupaji.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrkoci/code/korona-ekonomika-dopady/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3DFF02-36D9-784E-8439-3F5189438415}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2DA0AD-2EED-144F-9875-457771C5F360}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{A2B2F6C3-7CE6-4D3C-AD7E-51719189346E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{A2B2F6C3-7CE6-4D3C-AD7E-51719189346E}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ticker</t>
   </si>
@@ -33,61 +33,43 @@
     <t>Netflix</t>
   </si>
   <si>
-    <t>Zoom Technologies</t>
-  </si>
-  <si>
     <t>Campbell</t>
   </si>
   <si>
     <t>Clorox</t>
   </si>
   <si>
-    <t>Peloton</t>
-  </si>
-  <si>
-    <t>EA Games</t>
-  </si>
-  <si>
     <t>NFLX</t>
   </si>
   <si>
-    <t>ZOOM</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
     <t>CPB</t>
   </si>
   <si>
     <t>CLX</t>
   </si>
   <si>
-    <t>PTON</t>
-  </si>
-  <si>
-    <t>streamování filmů a seriálů</t>
-  </si>
-  <si>
-    <t>videokonference</t>
-  </si>
-  <si>
     <t>konzervované jídlo</t>
   </si>
   <si>
     <t>dezinfekce</t>
   </si>
   <si>
-    <t>fitness online</t>
-  </si>
-  <si>
-    <t>videohry</t>
-  </si>
-  <si>
     <t>nazev</t>
   </si>
   <si>
     <t>codela</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>Kroger</t>
+  </si>
+  <si>
+    <t>supermarkety</t>
+  </si>
+  <si>
+    <t>filmy a seriály přes internet</t>
   </si>
 </sst>
 </file>
@@ -440,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2017991C-D531-46AA-8E5D-7DDC1ED581D8}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -453,76 +435,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
